--- a/tests/materials/CreepUC/CreepUC.xlsx
+++ b/tests/materials/CreepUC/CreepUC.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="creep" sheetId="1" r:id="rId1"/>
+    <sheet name="modulus" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>thermal</t>
   </si>
@@ -33,9 +34,6 @@
     <t>fission rate</t>
   </si>
   <si>
-    <t>analytical</t>
-  </si>
-  <si>
     <t>e=a*s^b*exp(-c/T)</t>
   </si>
   <si>
@@ -57,9 +55,6 @@
     <t>dt</t>
   </si>
   <si>
-    <t>disp_y</t>
-  </si>
-  <si>
     <t>elastic strain</t>
   </si>
   <si>
@@ -81,23 +76,79 @@
     <t>fission strain rate</t>
   </si>
   <si>
-    <t>+----------------+----------------+----------------+----------------+----------------+</t>
-  </si>
-  <si>
-    <t>| time           | node_x         | node_y         | node_z         | temperature (K)|</t>
-  </si>
-  <si>
-    <t>BUCK</t>
+    <t>E=a*(1-b*p)*(1-c*(t-273)))</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>ym</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>Temp [K]</t>
+  </si>
+  <si>
+    <t>Porosity</t>
+  </si>
+  <si>
+    <t>Young's Modulus</t>
+  </si>
+  <si>
+    <t>% difference</t>
+  </si>
+  <si>
+    <t>calc</t>
+  </si>
+  <si>
+    <t>Poissons Ratio</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>y_disp (EXCEL)</t>
+  </si>
+  <si>
+    <t>y_disp (BUCK)</t>
+  </si>
+  <si>
+    <t>x_disp (BUCK)</t>
+  </si>
+  <si>
+    <t>x_disp (EXCEL)</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>disp_y (BUCK)</t>
+  </si>
+  <si>
+    <t>disp_y (EXCEL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,55 +190,114 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="94">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -208,6 +318,32 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -228,7 +364,34 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="41" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -299,6 +462,52 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>596900</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -644,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I45"/>
+  <dimension ref="A2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -659,90 +868,90 @@
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="H4" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>50000000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="1">
         <v>200000000000</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="1:9">
       <c r="H7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7" s="1">
         <f>I4/I5</f>
-        <v>2.5000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>9.4799999999999995E-9</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1">
         <v>1.0000000000000001E-37</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2.44</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>63200</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="1:9">
       <c r="H11" t="s">
         <v>1</v>
       </c>
@@ -750,7 +959,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="1:9">
       <c r="H12" t="s">
         <v>3</v>
       </c>
@@ -758,406 +967,329 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="1:9">
       <c r="H13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13">
         <f>$C$8*$I$4^$C$9*EXP(-$C$10/$I$11)</f>
-        <v>2.6969904120905394E-10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
+        <v>4.0308124559536776E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="H14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1">
         <f>$I$12*$F$8*$I$4</f>
-        <v>5.0000000000000003E-10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" t="s">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5.4279740000000003E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <f>I7+$I$13*$I$9+$I$14*$I$9</f>
+        <v>5.4130812455953671E-3</v>
+      </c>
+      <c r="E17" s="7">
+        <f>ABS(C17-D17)/D17*100</f>
+        <v>0.27512527022851352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5.8433820000000003E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <f>D17+$I$13*$I$9+$I$14*$I$9</f>
+        <v>5.8261624911907341E-3</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" ref="E18:E26" si="0">ABS(C18-D18)/D18*100</f>
+        <v>0.295554901451897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6.2589630000000002E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:D26" si="1">D18+$I$13*$I$9+$I$14*$I$9</f>
+        <v>6.2392437367861011E-3</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.31605213781977842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2.5773019999999997E-4</v>
-      </c>
-      <c r="C17" s="2">
-        <f>I7+$I$13*$I$9+$I$14*$I$9</f>
-        <v>2.5769699041209058E-4</v>
-      </c>
-      <c r="D17" s="2">
-        <f>ABS(B17-C17)/C17*100</f>
-        <v>1.2887068590242481E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2.6542919999999998E-4</v>
-      </c>
-      <c r="C18" s="2">
-        <f>C17+$I$13*$I$9+$I$14*$I$9</f>
-        <v>2.6539398082418115E-4</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:D26" si="0">ABS(B18-C18)/C18*100</f>
-        <v>1.3270525469138466E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2.7312830000000003E-4</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" ref="C19:C26" si="1">C18+$I$13*$I$9+$I$14*$I$9</f>
-        <v>2.7309097123627172E-4</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C20" s="2">
+        <v>6.6747159999999998E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>6.6523249823814681E-3</v>
+      </c>
+      <c r="E20" s="7">
         <f t="shared" si="0"/>
-        <v>1.3668984939091333E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2.8082740000000001E-4</v>
-      </c>
-      <c r="C20" s="2">
+        <v>0.33658935301317677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7.0906399999999996E-3</v>
+      </c>
+      <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>2.8078796164836229E-4</v>
-      </c>
-      <c r="D20" s="2">
+        <v>7.0654062279768351E-3</v>
+      </c>
+      <c r="E21" s="7">
         <f t="shared" si="0"/>
-        <v>1.404559917960815E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2.8852659999999998E-4</v>
-      </c>
-      <c r="C21" s="2">
+        <v>0.35714538143959151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7.5067370000000003E-3</v>
+      </c>
+      <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>2.8848495206045287E-4</v>
-      </c>
-      <c r="D21" s="2">
+        <v>7.4784874735722021E-3</v>
+      </c>
+      <c r="E22" s="7">
         <f t="shared" si="0"/>
-        <v>1.4436780584101269E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2.9622580000000001E-4</v>
-      </c>
-      <c r="C22" s="2">
+        <v>0.37774384897517838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7.9230050000000003E-3</v>
+      </c>
+      <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>2.9618194247254344E-4</v>
-      </c>
-      <c r="D22" s="2">
+        <v>7.8915687191675691E-3</v>
+      </c>
+      <c r="E23" s="7">
         <f t="shared" si="0"/>
-        <v>1.4807630435009954E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3.0392510000000001E-4</v>
-      </c>
-      <c r="C23" s="2">
+        <v>0.39835274773793322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8.3394449999999992E-3</v>
+      </c>
+      <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>3.0387893288463401E-4</v>
-      </c>
-      <c r="D23" s="2">
+        <v>8.304649964762937E-3</v>
+      </c>
+      <c r="E24" s="7">
         <f t="shared" si="0"/>
-        <v>1.5192601516580192E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3.1162449999999999E-4</v>
-      </c>
-      <c r="C24" s="2">
+        <v>0.41898256259685046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.7560569999999994E-3</v>
+      </c>
+      <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>3.1157592329672458E-4</v>
-      </c>
-      <c r="D24" s="2">
+        <v>8.7177312103583048E-3</v>
+      </c>
+      <c r="E25" s="7">
         <f t="shared" si="0"/>
-        <v>1.5590647300801804E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="B25" s="2">
-        <v>3.1932389999999997E-4</v>
-      </c>
-      <c r="C25" s="2">
+        <v>0.4396303202851255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9.1728420000000005E-3</v>
+      </c>
+      <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>3.1927291370881515E-4</v>
-      </c>
-      <c r="D25" s="2">
+        <v>9.1308124559536727E-3</v>
+      </c>
+      <c r="E26" s="7">
         <f t="shared" si="0"/>
-        <v>1.5969501011701963E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>10</v>
-      </c>
-      <c r="B26" s="2">
-        <v>3.2702339999999999E-4</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="1"/>
-        <v>3.2696990412090573E-4</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6361101869021757E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8">
-      <c r="D35" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E35" s="1">
-        <v>7.8845389999999995E-5</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2.5773019999999997E-4</v>
-      </c>
-      <c r="G35" s="1">
-        <v>7.8845389999999995E-5</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8">
-      <c r="D36" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E36" s="1">
-        <v>8.2693570000000002E-5</v>
-      </c>
-      <c r="F36" s="1">
-        <v>2.6542919999999998E-4</v>
-      </c>
-      <c r="G36" s="1">
-        <v>8.2693570000000002E-5</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8">
-      <c r="D37" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E37" s="1">
-        <v>8.6541739999999994E-5</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2.7312830000000003E-4</v>
-      </c>
-      <c r="G37" s="1">
-        <v>8.6541739999999994E-5</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8">
-      <c r="D38" s="1">
-        <v>40000</v>
-      </c>
-      <c r="E38" s="1">
-        <v>9.03899E-5</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2.8082740000000001E-4</v>
-      </c>
-      <c r="G38" s="1">
-        <v>9.03899E-5</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8">
-      <c r="D39" s="1">
-        <v>50000</v>
-      </c>
-      <c r="E39" s="1">
-        <v>9.4238040000000004E-5</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2.8852659999999998E-4</v>
-      </c>
-      <c r="G39" s="1">
-        <v>9.4238040000000004E-5</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8">
-      <c r="D40" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E40" s="1">
-        <v>9.8086159999999993E-5</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2.9622580000000001E-4</v>
-      </c>
-      <c r="G40" s="1">
-        <v>9.8086159999999993E-5</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8">
-      <c r="D41" s="1">
-        <v>70000</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1.019343E-4</v>
-      </c>
-      <c r="F41" s="1">
-        <v>3.0392510000000001E-4</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1.019343E-4</v>
-      </c>
-      <c r="H41" s="1">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8">
-      <c r="D42" s="1">
-        <v>80000</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1.057824E-4</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3.1162449999999999E-4</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1.057824E-4</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8">
-      <c r="D43" s="1">
-        <v>90000</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1.0963040000000001E-4</v>
-      </c>
-      <c r="F43" s="1">
-        <v>3.1932389999999997E-4</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1.0963040000000001E-4</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8">
-      <c r="D44" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1.1347849999999999E-4</v>
-      </c>
-      <c r="F44" s="1">
-        <v>3.2702339999999999E-4</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1.1347849999999999E-4</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8">
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
+        <v>0.46030453751049039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="4:9">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="4:9">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="4:9">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="4:9">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="4:9">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="4:9">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="4:9">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="4:9">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="4:9">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="4:9">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="4:9">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="4:9">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1222,4 +1354,761 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:O42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>215000000000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>200000000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.2E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1">
+        <v>419.99619999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.7143089999999999E-3</v>
+      </c>
+      <c r="E14" s="5">
+        <f>$C$10/K14</f>
+        <v>5.6977955273274251E-3</v>
+      </c>
+      <c r="F14" s="6">
+        <f>(D14-E14)/E14</f>
+        <v>2.8982213547983394E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1.5175989999999999E-3</v>
+      </c>
+      <c r="H14" s="5">
+        <f>-E14*L14</f>
+        <v>-1.5187473978091248E-3</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" ref="I14:I23" si="0">(G14-H14)/H14</f>
+        <v>-7.5614800116302269E-4</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="2">
+        <f>$C$5*(1-$C$6*C14)*(1-$C$7*(B14-273))</f>
+        <v>175506473548.20999</v>
+      </c>
+      <c r="L14" s="8">
+        <f>0.288 - 0.286*C14</f>
+        <v>0.26654999999999995</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>539.99789999999996</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.2120489999999999E-3</v>
+      </c>
+      <c r="E15" s="5">
+        <f>$C$10/K15</f>
+        <v>6.1925846086702558E-3</v>
+      </c>
+      <c r="F15" s="6">
+        <f>(D15-E15)/E15</f>
+        <v>3.1431772934506085E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-1.6050719999999999E-3</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" ref="H15:H23" si="1">-E15*L15</f>
+        <v>-1.6063564474890642E-3</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.9960303397919714E-4</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="2">
+        <f>$C$5*(1-$C$6*C15)*(1-$C$7*(B15-273))</f>
+        <v>161483461784.26001</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" ref="L15:L23" si="2">0.288 - 0.286*C15</f>
+        <v>0.25939999999999996</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1">
+        <v>659.99789999999996</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.7921600000000002E-3</v>
+      </c>
+      <c r="E16" s="5">
+        <f>$C$10/K16</f>
+        <v>6.7689480966916247E-3</v>
+      </c>
+      <c r="F16" s="6">
+        <f>(D16-E16)/E16</f>
+        <v>3.4291743675388137E-3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1.706015E-3</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.707467157390462E-3</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="0"/>
+        <v>-8.5047456648093371E-4</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="2">
+        <f>$C$5*(1-$C$6*C16)*(1-$C$7*(B16-273))</f>
+        <v>147733441845.82501</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25224999999999997</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>779.99789999999996</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.4764949999999997E-3</v>
+      </c>
+      <c r="E17" s="5">
+        <f>$C$10/K17</f>
+        <v>7.448435269885781E-3</v>
+      </c>
+      <c r="F17" s="6">
+        <f>(D17-E17)/E17</f>
+        <v>3.7671979546717491E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-1.8239510000000001E-3</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.8256114846490047E-3</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="0"/>
+        <v>-9.0954984834787356E-4</v>
+      </c>
+      <c r="K17" s="2">
+        <f>$C$5*(1-$C$6*C17)*(1-$C$7*(B17-273))</f>
+        <v>134256385907.39</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="2"/>
+        <v>0.24509999999999998</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1">
+        <v>899.99789999999996</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8.2953599999999999E-3</v>
+      </c>
+      <c r="E18" s="5">
+        <f>$C$10/K18</f>
+        <v>8.2608926044512587E-3</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F23" si="3">(D18-E18)/E18</f>
+        <v>4.1723572983104655E-3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-1.9637529999999999E-3</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.9656793952291768E-3</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="0"/>
+        <v>-9.8001496777770885E-4</v>
+      </c>
+      <c r="K18" s="2">
+        <f>$C$5*(1-$C$6*C18)*(1-$C$7*(B18-273))</f>
+        <v>121052293968.955</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="2"/>
+        <v>0.23794999999999999</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1019.998</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9.2920399999999997E-3</v>
+      </c>
+      <c r="E19" s="5">
+        <f>$C$10/K19</f>
+        <v>9.2488829578164268E-3</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="3"/>
+        <v>4.6661896772193382E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-2.1323700000000002E-3</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.134642186664031E-3</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.0644344416249538E-3</v>
+      </c>
+      <c r="K19" s="2">
+        <f>$C$5*(1-$C$6*C19)*(1-$C$7*(B19-273))</f>
+        <v>108121164962.40001</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="2"/>
+        <v>0.23079999999999998</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1139.998</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.0530579999999999E-2</v>
+      </c>
+      <c r="E20" s="5">
+        <f>$C$10/K20</f>
+        <v>1.0475262542370276E-2</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="3"/>
+        <v>5.2807705206409398E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-2.3400550000000002E-3</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.3427924676011121E-3</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.168463548935248E-3</v>
+      </c>
+      <c r="K20" s="2">
+        <f>$C$5*(1-$C$6*C20)*(1-$C$7*(B20-273))</f>
+        <v>95463001137.700012</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="2"/>
+        <v>0.22364999999999999</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1259.998</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.210991E-2</v>
+      </c>
+      <c r="E21" s="5">
+        <f>$C$10/K21</f>
+        <v>1.2036909790528122E-2</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="3"/>
+        <v>6.0646968983120199E-3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-2.6026030000000002E-3</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.6059909696493381E-3</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.3000696045365804E-3</v>
+      </c>
+      <c r="K21" s="2">
+        <f>$C$5*(1-$C$6*C21)*(1-$C$7*(B21-273))</f>
+        <v>83077801313.000015</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.21649999999999997</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1379.998</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.419137E-2</v>
+      </c>
+      <c r="E22" s="5">
+        <f>$C$10/K22</f>
+        <v>1.4091341245845049E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="3"/>
+        <v>7.0985971036962069E-3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-2.94568E-3</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.9500222898176608E-3</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.4719515281795418E-3</v>
+      </c>
+      <c r="K22" s="2">
+        <f>$C$5*(1-$C$6*C22)*(1-$C$7*(B22-273))</f>
+        <v>70965565488.300018</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="2"/>
+        <v>0.20934999999999998</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1499.998</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.705709E-2</v>
+      </c>
+      <c r="E23" s="5">
+        <f>$C$10/K23</f>
+        <v>1.6912949181112483E-2</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="3"/>
+        <v>8.522512386455159E-3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-3.413962E-3</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.419798324420944E-3</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.7066282474222465E-3</v>
+      </c>
+      <c r="K23" s="2">
+        <f>$C$5*(1-$C$6*C23)*(1-$C$7*(B23-273))</f>
+        <v>59126293663.600014</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="2"/>
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="2049" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>596900</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="2049" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/tests/materials/CreepUC/CreepUC.xlsx
+++ b/tests/materials/CreepUC/CreepUC.xlsx
@@ -138,8 +138,8 @@
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -294,8 +294,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="94">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1486,7 +1486,7 @@
         <v>5.7143089999999999E-3</v>
       </c>
       <c r="E14" s="5">
-        <f>$C$10/K14</f>
+        <f t="shared" ref="E14:E23" si="0">$C$10/K14</f>
         <v>5.6977955273274251E-3</v>
       </c>
       <c r="F14" s="6">
@@ -1501,12 +1501,12 @@
         <v>-1.5187473978091248E-3</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" ref="I14:I23" si="0">(G14-H14)/H14</f>
+        <f t="shared" ref="I14:I23" si="1">(G14-H14)/H14</f>
         <v>-7.5614800116302269E-4</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="2">
-        <f>$C$5*(1-$C$6*C14)*(1-$C$7*(B14-273))</f>
+        <f t="shared" ref="K14:K23" si="2">$C$5*(1-$C$6*C14)*(1-$C$7*(B14-273))</f>
         <v>175506473548.20999</v>
       </c>
       <c r="L14" s="8">
@@ -1531,7 +1531,7 @@
         <v>6.2120489999999999E-3</v>
       </c>
       <c r="E15" s="5">
-        <f>$C$10/K15</f>
+        <f t="shared" si="0"/>
         <v>6.1925846086702558E-3</v>
       </c>
       <c r="F15" s="6">
@@ -1542,20 +1542,20 @@
         <v>-1.6050719999999999E-3</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" ref="H15:H23" si="1">-E15*L15</f>
+        <f t="shared" ref="H15:H23" si="3">-E15*L15</f>
         <v>-1.6063564474890642E-3</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.9960303397919714E-4</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="2">
-        <f>$C$5*(1-$C$6*C15)*(1-$C$7*(B15-273))</f>
+        <f t="shared" si="2"/>
         <v>161483461784.26001</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" ref="L15:L23" si="2">0.288 - 0.286*C15</f>
+        <f t="shared" ref="L15:L23" si="4">0.288 - 0.286*C15</f>
         <v>0.25939999999999996</v>
       </c>
       <c r="M15" s="1"/>
@@ -1576,7 +1576,7 @@
         <v>6.7921600000000002E-3</v>
       </c>
       <c r="E16" s="5">
-        <f>$C$10/K16</f>
+        <f t="shared" si="0"/>
         <v>6.7689480966916247E-3</v>
       </c>
       <c r="F16" s="6">
@@ -1587,20 +1587,20 @@
         <v>-1.706015E-3</v>
       </c>
       <c r="H16" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.707467157390462E-3</v>
+      </c>
+      <c r="I16" s="6">
         <f t="shared" si="1"/>
-        <v>-1.707467157390462E-3</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" si="0"/>
         <v>-8.5047456648093371E-4</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="2">
-        <f>$C$5*(1-$C$6*C16)*(1-$C$7*(B16-273))</f>
+        <f t="shared" si="2"/>
         <v>147733441845.82501</v>
       </c>
       <c r="L16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25224999999999997</v>
       </c>
       <c r="M16" s="1"/>
@@ -1621,7 +1621,7 @@
         <v>7.4764949999999997E-3</v>
       </c>
       <c r="E17" s="5">
-        <f>$C$10/K17</f>
+        <f t="shared" si="0"/>
         <v>7.448435269885781E-3</v>
       </c>
       <c r="F17" s="6">
@@ -1632,19 +1632,19 @@
         <v>-1.8239510000000001E-3</v>
       </c>
       <c r="H17" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.8256114846490047E-3</v>
+      </c>
+      <c r="I17" s="6">
         <f t="shared" si="1"/>
-        <v>-1.8256114846490047E-3</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="0"/>
         <v>-9.0954984834787356E-4</v>
       </c>
       <c r="K17" s="2">
-        <f>$C$5*(1-$C$6*C17)*(1-$C$7*(B17-273))</f>
+        <f t="shared" si="2"/>
         <v>134256385907.39</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24509999999999998</v>
       </c>
       <c r="M17" s="1"/>
@@ -1665,30 +1665,30 @@
         <v>8.2953599999999999E-3</v>
       </c>
       <c r="E18" s="5">
-        <f>$C$10/K18</f>
+        <f t="shared" si="0"/>
         <v>8.2608926044512587E-3</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" ref="F18:F23" si="3">(D18-E18)/E18</f>
+        <f t="shared" ref="F18:F23" si="5">(D18-E18)/E18</f>
         <v>4.1723572983104655E-3</v>
       </c>
       <c r="G18" s="1">
         <v>-1.9637529999999999E-3</v>
       </c>
       <c r="H18" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.9656793952291768E-3</v>
+      </c>
+      <c r="I18" s="6">
         <f t="shared" si="1"/>
-        <v>-1.9656793952291768E-3</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="0"/>
         <v>-9.8001496777770885E-4</v>
       </c>
       <c r="K18" s="2">
-        <f>$C$5*(1-$C$6*C18)*(1-$C$7*(B18-273))</f>
+        <f t="shared" si="2"/>
         <v>121052293968.955</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.23794999999999999</v>
       </c>
       <c r="M18" s="1"/>
@@ -1709,30 +1709,30 @@
         <v>9.2920399999999997E-3</v>
       </c>
       <c r="E19" s="5">
-        <f>$C$10/K19</f>
+        <f t="shared" si="0"/>
         <v>9.2488829578164268E-3</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.6661896772193382E-3</v>
       </c>
       <c r="G19" s="1">
         <v>-2.1323700000000002E-3</v>
       </c>
       <c r="H19" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.134642186664031E-3</v>
+      </c>
+      <c r="I19" s="6">
         <f t="shared" si="1"/>
-        <v>-2.134642186664031E-3</v>
-      </c>
-      <c r="I19" s="6">
-        <f t="shared" si="0"/>
         <v>-1.0644344416249538E-3</v>
       </c>
       <c r="K19" s="2">
-        <f>$C$5*(1-$C$6*C19)*(1-$C$7*(B19-273))</f>
+        <f t="shared" si="2"/>
         <v>108121164962.40001</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.23079999999999998</v>
       </c>
       <c r="M19" s="1"/>
@@ -1753,30 +1753,30 @@
         <v>1.0530579999999999E-2</v>
       </c>
       <c r="E20" s="5">
-        <f>$C$10/K20</f>
+        <f t="shared" si="0"/>
         <v>1.0475262542370276E-2</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.2807705206409398E-3</v>
       </c>
       <c r="G20" s="1">
         <v>-2.3400550000000002E-3</v>
       </c>
       <c r="H20" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.3427924676011121E-3</v>
+      </c>
+      <c r="I20" s="6">
         <f t="shared" si="1"/>
-        <v>-2.3427924676011121E-3</v>
-      </c>
-      <c r="I20" s="6">
-        <f t="shared" si="0"/>
         <v>-1.168463548935248E-3</v>
       </c>
       <c r="K20" s="2">
-        <f>$C$5*(1-$C$6*C20)*(1-$C$7*(B20-273))</f>
+        <f t="shared" si="2"/>
         <v>95463001137.700012</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.22364999999999999</v>
       </c>
       <c r="M20" s="1"/>
@@ -1797,30 +1797,30 @@
         <v>1.210991E-2</v>
       </c>
       <c r="E21" s="5">
-        <f>$C$10/K21</f>
+        <f t="shared" si="0"/>
         <v>1.2036909790528122E-2</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.0646968983120199E-3</v>
       </c>
       <c r="G21" s="1">
         <v>-2.6026030000000002E-3</v>
       </c>
       <c r="H21" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.6059909696493381E-3</v>
+      </c>
+      <c r="I21" s="6">
         <f t="shared" si="1"/>
-        <v>-2.6059909696493381E-3</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="0"/>
         <v>-1.3000696045365804E-3</v>
       </c>
       <c r="K21" s="2">
-        <f>$C$5*(1-$C$6*C21)*(1-$C$7*(B21-273))</f>
+        <f t="shared" si="2"/>
         <v>83077801313.000015</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.21649999999999997</v>
       </c>
       <c r="M21" s="1"/>
@@ -1841,30 +1841,30 @@
         <v>1.419137E-2</v>
       </c>
       <c r="E22" s="5">
-        <f>$C$10/K22</f>
+        <f t="shared" si="0"/>
         <v>1.4091341245845049E-2</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.0985971036962069E-3</v>
       </c>
       <c r="G22" s="1">
         <v>-2.94568E-3</v>
       </c>
       <c r="H22" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.9500222898176608E-3</v>
+      </c>
+      <c r="I22" s="6">
         <f t="shared" si="1"/>
-        <v>-2.9500222898176608E-3</v>
-      </c>
-      <c r="I22" s="6">
-        <f t="shared" si="0"/>
         <v>-1.4719515281795418E-3</v>
       </c>
       <c r="K22" s="2">
-        <f>$C$5*(1-$C$6*C22)*(1-$C$7*(B22-273))</f>
+        <f t="shared" si="2"/>
         <v>70965565488.300018</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20934999999999998</v>
       </c>
       <c r="M22" s="1"/>
@@ -1885,30 +1885,30 @@
         <v>1.705709E-2</v>
       </c>
       <c r="E23" s="5">
-        <f>$C$10/K23</f>
+        <f t="shared" si="0"/>
         <v>1.6912949181112483E-2</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.522512386455159E-3</v>
       </c>
       <c r="G23" s="1">
         <v>-3.413962E-3</v>
       </c>
       <c r="H23" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.419798324420944E-3</v>
+      </c>
+      <c r="I23" s="6">
         <f t="shared" si="1"/>
-        <v>-3.419798324420944E-3</v>
-      </c>
-      <c r="I23" s="6">
-        <f t="shared" si="0"/>
         <v>-1.7066282474222465E-3</v>
       </c>
       <c r="K23" s="2">
-        <f>$C$5*(1-$C$6*C23)*(1-$C$7*(B23-273))</f>
+        <f t="shared" si="2"/>
         <v>59126293663.600014</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20219999999999999</v>
       </c>
       <c r="M23" s="1"/>
